--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194530.2547727687</v>
+        <v>191798.6753109439</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>95.03473523359482</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>53.18118391257254</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>51.25670523203451</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>3.932784358880681</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>146.4694018824149</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448611</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>92.02553121367579</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250814</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229324</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>31.29558213980415</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>123.220259035293</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>23.12132905717098</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>82.11907158728783</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>250.1225052756975</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.76943124013413</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>29.959001240238</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>176.7621441121405</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819385</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>41.74133133758682</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>22.04658882052573</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>81.13054509253433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922718</v>
+        <v>59.66990246485164</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722642</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>141.9273329298517</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>18.50276072357147</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>39.96816871822014</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634831</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428297</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="41">
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2058.606050724286</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C2" t="n">
-        <v>1689.643533783874</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D2" t="n">
-        <v>1331.377835177124</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E2" t="n">
-        <v>945.5895825788796</v>
+        <v>163.8610679359097</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>163.8610679359097</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>149.9376638745006</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>149.9376638745006</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2643.430723429765</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2389.668938067857</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2058.606050724286</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2058.606050724286</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2058.606050724286</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2058.606050724286</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.9823256406185</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>411.0461427127116</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>411.0461427127116</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0461427127116</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>411.0461427127116</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>242.046342451044</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
         <v>190.2718927217162</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406185</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1152.132006003445</v>
+        <v>1156.75737613363</v>
       </c>
       <c r="C5" t="n">
-        <v>1152.132006003445</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1152.132006003445</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>766.3437534052005</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>355.3578486155929</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733133</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224085</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791255</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332395</v>
+        <v>2604.194008984206</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304458</v>
+        <v>2604.194008984206</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304458</v>
+        <v>2604.194008984206</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304458</v>
+        <v>2273.131121640636</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304458</v>
+        <v>1920.362466370522</v>
       </c>
       <c r="X5" t="n">
-        <v>1928.871178043378</v>
+        <v>1546.896708109442</v>
       </c>
       <c r="Y5" t="n">
-        <v>1538.731846067566</v>
+        <v>1156.75737613363</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615932</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572653</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315297</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414848</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435192</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.2978374347324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>325.2978374347324</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>325.2978374347324</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E7" t="n">
-        <v>325.2978374347324</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>178.407889936822</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>178.407889936822</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866328</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477914</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658215</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502507</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.261789359491</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064352</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064352</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>325.2978374347324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>325.2978374347324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>325.2978374347324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>325.2978374347324</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>453.2058773455059</v>
+        <v>1678.198452807675</v>
       </c>
       <c r="C8" t="n">
-        <v>84.24336040509422</v>
+        <v>1678.198452807675</v>
       </c>
       <c r="D8" t="n">
-        <v>84.24336040509422</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="E8" t="n">
-        <v>84.24336040509422</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>77.29785965589075</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>53.9429818203645</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.9429818203645</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.1772318137478</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337933</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079993</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.96177292018</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980026</v>
+        <v>1579.896877817736</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747103</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.16497099663</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.934053515053</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.934053515053</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2287.242350260204</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="V8" t="n">
-        <v>1956.179462916633</v>
+        <v>2151.286341942363</v>
       </c>
       <c r="W8" t="n">
-        <v>1603.410807646519</v>
+        <v>2151.286341942363</v>
       </c>
       <c r="X8" t="n">
-        <v>1229.945049385439</v>
+        <v>2068.337784783486</v>
       </c>
       <c r="Y8" t="n">
-        <v>839.8057174096277</v>
+        <v>1678.198452807675</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260215</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.847838830048</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.9429818203645</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2276.371025864785</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2802780048899</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>685.344095076983</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>535.2274556646472</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>387.3143620822541</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>240.4244145843437</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4969,13 +4969,13 @@
         <v>339.8239063167927</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360307</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721351</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607339</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P10" t="n">
         <v>1050.459343859349</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="Y10" t="n">
-        <v>1035.928742835129</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.514925172274</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876686</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406112</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797193</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452603</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647286</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368217</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888072</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888072</v>
+        <v>524.777773808146</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908968</v>
+        <v>377.8878263102356</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235166</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336516</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949683</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,43 +5759,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797193</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797193</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.195150674524</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.955532171245</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396418</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W22" t="n">
-        <v>1357.386127043032</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X22" t="n">
-        <v>1129.396576145015</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.6039970014847</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828446</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770328</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C25" t="n">
-        <v>634.3345878491259</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>484.2179484367902</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>336.304854854397</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>336.304854854397</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750803</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072725</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,64 +6212,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516147</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348534</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348534</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2299.457522348534</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,61 +6358,61 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270456</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
         <v>1688.385853854707</v>
@@ -6421,13 +6421,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6686,37 +6686,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,13 +7023,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7087,43 +7087,43 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7160,28 +7160,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714574</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
         <v>402.7245934908939</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
         <v>2254.869721166297</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415575</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8459,19 +8459,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>160.408845469474</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>275.3456371407393</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R14" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-2.300097184559153e-14</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>138.8326323754365</v>
       </c>
       <c r="G2" t="n">
-        <v>158.251003178517</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>56.89658101126643</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>163.2671364450853</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>40.64330621514776</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238239</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>125.505489761041</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>123.3744592024055</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>67.48492792567802</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>105.8542358274172</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856704</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>144.5956654067393</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229416</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>147.0213775686974</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194089</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>65.54986409393035</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406863</v>
+        <v>317255.8761406865</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="E2" t="n">
+        <v>343037.3048682525</v>
+      </c>
+      <c r="F2" t="n">
         <v>343037.3048682526</v>
-      </c>
-      <c r="F2" t="n">
-        <v>343037.3048682525</v>
       </c>
       <c r="G2" t="n">
         <v>343037.3048682525</v>
       </c>
       <c r="H2" t="n">
+        <v>343037.3048682525</v>
+      </c>
+      <c r="I2" t="n">
         <v>343037.3048682529</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="M2" t="n">
         <v>343037.3048682528</v>
-      </c>
-      <c r="K2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682526</v>
       </c>
       <c r="N2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="P2" t="n">
         <v>343037.3048682529</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>7.37990616926254e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481111</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>1.086233883792634e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167367.5317503682</v>
+        <v>167367.5317503681</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630331</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682752</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682746</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682622</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682622</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682622</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682602</v>
-      </c>
       <c r="J4" t="n">
-        <v>5677.536566682632</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="K4" t="n">
+        <v>5677.536566682718</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682736</v>
+      </c>
+      <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>5677.536566682757</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682798</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682747</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340951</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084683</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-522938.6128876359</v>
+        <v>-523125.0062761746</v>
       </c>
       <c r="C6" t="n">
-        <v>56161.25866587678</v>
+        <v>56161.25866587766</v>
       </c>
       <c r="D6" t="n">
-        <v>-99642.54742791684</v>
+        <v>-99642.54742791742</v>
       </c>
       <c r="E6" t="n">
-        <v>-534815.4529031438</v>
+        <v>-534850.1908285794</v>
       </c>
       <c r="F6" t="n">
-        <v>236237.2384776627</v>
+        <v>236202.500552227</v>
       </c>
       <c r="G6" t="n">
-        <v>236237.2384776628</v>
+        <v>236202.5005522269</v>
       </c>
       <c r="H6" t="n">
-        <v>236237.2384776631</v>
+        <v>236202.500552227</v>
       </c>
       <c r="I6" t="n">
-        <v>236237.238477663</v>
+        <v>236202.5005522273</v>
       </c>
       <c r="J6" t="n">
-        <v>59814.01928506995</v>
+        <v>59779.28135963398</v>
       </c>
       <c r="K6" t="n">
-        <v>236237.2384776636</v>
+        <v>236202.5005522271</v>
       </c>
       <c r="L6" t="n">
-        <v>236237.2384776631</v>
+        <v>236202.5005522271</v>
       </c>
       <c r="M6" t="n">
-        <v>112028.7277696043</v>
+        <v>111993.9898441688</v>
       </c>
       <c r="N6" t="n">
-        <v>236237.2384776628</v>
+        <v>236202.5005522271</v>
       </c>
       <c r="O6" t="n">
-        <v>236237.238477663</v>
+        <v>236202.5005522274</v>
       </c>
       <c r="P6" t="n">
-        <v>236237.2384776631</v>
+        <v>236202.5005522273</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170873</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,28 +26790,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545563</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545563</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209778</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450923</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>268.043413366275</v>
       </c>
       <c r="G2" t="n">
-        <v>255.533166842278</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>104.9141836097606</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>214.6518689932141</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>267.31476813838</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481155</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.39018159529572</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>117.3198908784082</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>32.95062980650216</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853692</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491421</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>389.7955748887658</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>287.6120290911812</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>36.13814938239952</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8152221119607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,13 +28378,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.153403721738355e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.922090759836596e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28801,13 +28801,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.979373921054908e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-8.116852370168079e-12</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.804149489941975e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340048</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141002</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554476</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630673</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405372</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338308</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.861538911987</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.371903895467</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.988205504414</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633813</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727388</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473564</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141123</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188927</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890694</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396489</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649104</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.416982047801</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983125</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736704</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.315665592305</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.152864647958</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639067</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703499</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131475</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.27496629637267</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619162</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078622</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644452</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492008</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813585</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302252</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246926</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666596</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175859</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383813</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678017</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701169</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695338</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197228</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315616</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32789,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>468.3778278510266</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071789</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.1374415194845</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33108,31 +33108,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
         <v>0.1345549672467222</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,22 +33737,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>289.7537444526272</v>
+        <v>456.3459017226597</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,28 +34211,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>454.5879800486398</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343422</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435305</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492241</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530457</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116801</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898692</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770703</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.82557620313</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.702947571386</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262941</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338906</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245901</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751852</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137343</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713967</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458882</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557983</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873162</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
@@ -35179,19 +35179,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>348.9941109496838</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>447.2335415013044</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,7 +35258,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35267,10 +35267,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561594</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164529</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>334.4034204366964</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238456</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.1556674334629</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>151.9123054782682</v>
+        <v>318.5044627483007</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>311.9917356041954</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
